--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50D3ED-3439-45BD-8EE3-CFD7AD223903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01006BD2-C9D5-4705-A39F-7DD2E2F97A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="512">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2162,12 +2162,82 @@
     <t>じっせん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>しょほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感じ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（fee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ling）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙しい感じ、疲れた感じ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こたえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>answer）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2216,6 +2286,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2237,11 +2314,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2522,15 +2600,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,7 +2845,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
         <v>432</v>
       </c>
@@ -2774,7 +2853,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D18" s="2" t="s">
         <v>365</v>
       </c>
@@ -2782,7 +2861,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>367</v>
       </c>
@@ -2790,7 +2869,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
         <v>456</v>
       </c>
@@ -2798,7 +2877,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
         <v>458</v>
       </c>
@@ -2806,7 +2885,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
         <v>460</v>
       </c>
@@ -2814,7 +2893,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
         <v>462</v>
       </c>
@@ -2822,7 +2901,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
         <v>478</v>
       </c>
@@ -2830,7 +2909,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
         <v>480</v>
       </c>
@@ -2838,7 +2917,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
         <v>484</v>
       </c>
@@ -2846,7 +2925,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
         <v>486</v>
       </c>
@@ -2854,7 +2933,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
         <v>487</v>
       </c>
@@ -2862,12 +2941,45 @@
         <v>488</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
         <v>489</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="D30" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="D31" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="D32" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -2880,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3145,7 +3257,7 @@
         <v>395</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>394</v>
+        <v>504</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>109</v>
@@ -3246,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3498,10 +3610,13 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -3550,7 +3665,7 @@
       <c r="F4" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>363</v>
       </c>
       <c r="H4" t="s">
@@ -3665,13 +3780,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01006BD2-C9D5-4705-A39F-7DD2E2F97A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99F0F9-96AA-4E83-933C-6F4E5F24F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="524">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2230,6 +2230,66 @@
       </rPr>
       <t>answer）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担心，挂念）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらそい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（争吵）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のど</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2314,12 +2374,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2602,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3356,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3459,143 +3520,151 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>498</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>499</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>327</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>500</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>501</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>382</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>381</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>387</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>388</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>223</v>
+        <v>387</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3778,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4132,6 +4201,15 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>202</v>
       </c>
@@ -4152,6 +4230,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>203</v>
       </c>
@@ -4477,7 +4561,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
         <v>434</v>
       </c>
@@ -4491,7 +4575,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D34" s="1" t="s">
         <v>440</v>
       </c>
@@ -4505,7 +4589,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D35" s="1" t="s">
         <v>442</v>
       </c>
@@ -4519,27 +4603,44 @@
         <v>492</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D36" s="1" t="s">
         <v>444</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="J36" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D37" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D38" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="D38" s="1" t="s">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D39" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>469</v>
       </c>
     </row>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99F0F9-96AA-4E83-933C-6F4E5F24F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14C0A8-C986-41AC-BCF7-43C68BAC3C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
-    <sheet name="治療（ちりょう）" sheetId="3" r:id="rId2"/>
-    <sheet name="器官（きかん）" sheetId="2" r:id="rId3"/>
-    <sheet name="効能（こうのう）" sheetId="4" r:id="rId4"/>
-    <sheet name="仕草（しぐさ）" sheetId="5" r:id="rId5"/>
+    <sheet name="動作" sheetId="7" r:id="rId2"/>
+    <sheet name="治療（ちりょう）" sheetId="3" r:id="rId3"/>
+    <sheet name="器官（きかん）" sheetId="2" r:id="rId4"/>
+    <sheet name="効能（こうのう）" sheetId="4" r:id="rId5"/>
+    <sheet name="仕草（しぐさ）" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="537">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>わん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>風邪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,10 +1200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血圧｜けつあつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>討論</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,14 +1321,6 @@
   </si>
   <si>
     <t>飲用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>けつえき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2290,6 +2275,76 @@
   </si>
   <si>
     <t>のど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液｜けつえき
+血圧｜けつあつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手｜ひだりて
+右手｜みぎて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かた</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2374,13 +2429,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2675,372 +2733,372 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="4:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D18" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="4:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -3050,6 +3108,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03925EC-FB32-41FD-B1B9-5FF5D430CA4D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
   <dimension ref="A2:K25"/>
   <sheetViews>
@@ -3087,10 +3169,10 @@
         <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.45">
@@ -3113,24 +3195,24 @@
         <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -3172,13 +3254,13 @@
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>58</v>
@@ -3217,10 +3299,10 @@
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>66</v>
@@ -3245,16 +3327,16 @@
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.45">
@@ -3265,407 +3347,148 @@
         <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G22" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G23" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G24" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G25" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A2:E29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>310</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3675,11 +3498,314 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D82067-5C3E-4E01-B3EE-14B4FEADA739}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3698,10 +3824,10 @@
         <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -3715,128 +3841,136 @@
         <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3845,12 +3979,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3866,782 +4000,782 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="J9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D34" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D35" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D36" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D37" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D38" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D39" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14C0A8-C986-41AC-BCF7-43C68BAC3C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B335A9-00CA-44D1-94BE-D251C085360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="548">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2345,6 +2345,50 @@
   </si>
   <si>
     <t>かた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き出し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒気</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さむけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考え方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんがえかた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（opinion）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2719,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3099,6 +3143,17 @@
       </c>
       <c r="F32" s="4" t="s">
         <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="D33" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -3133,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3491,6 +3546,22 @@
         <v>493</v>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G26" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3499,10 +3570,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3592,6 +3663,9 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -3600,197 +3674,208 @@
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>535</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>494</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>494</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>495</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>522</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>523</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>526</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>222</v>
+        <v>377</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>223</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>497</v>
       </c>
     </row>
@@ -3984,7 +4069,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B335A9-00CA-44D1-94BE-D251C085360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A7434-758E-49F1-8CCD-F7F526716278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="567">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2389,6 +2389,83 @@
   </si>
   <si>
     <t>（opinion）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生き、息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いびき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髪型｜かみがた
+剃刀｜かみそり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くちびる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口紅｜くちべに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上半身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうはんしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下半身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かはんしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜんしん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2765,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3085,13 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>428</v>
       </c>
@@ -3016,7 +3099,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D18" s="2" t="s">
         <v>361</v>
       </c>
@@ -3024,7 +3107,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>363</v>
       </c>
@@ -3032,7 +3115,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
         <v>452</v>
       </c>
@@ -3040,7 +3123,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
         <v>454</v>
       </c>
@@ -3048,7 +3131,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D22" s="1" t="s">
         <v>456</v>
       </c>
@@ -3056,7 +3139,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D23" s="1" t="s">
         <v>458</v>
       </c>
@@ -3064,7 +3147,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
         <v>474</v>
       </c>
@@ -3072,7 +3155,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
         <v>476</v>
       </c>
@@ -3080,7 +3163,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
         <v>480</v>
       </c>
@@ -3088,7 +3171,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="27" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
         <v>482</v>
       </c>
@@ -3096,7 +3179,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
         <v>483</v>
       </c>
@@ -3104,7 +3187,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
         <v>485</v>
       </c>
@@ -3112,7 +3195,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
         <v>483</v>
       </c>
@@ -3120,7 +3203,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
         <v>501</v>
       </c>
@@ -3134,7 +3217,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="4:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
         <v>505</v>
       </c>
@@ -3167,7 +3250,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3188,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3562,6 +3645,22 @@
         <v>544</v>
       </c>
     </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G28" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G29" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3570,10 +3669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3615,14 +3714,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -3680,203 +3781,256 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>538</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>535</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>494</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>523</v>
+        <v>495</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>526</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>527</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>522</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>526</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>532</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>383</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>377</v>
+        <v>530</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>378</v>
+        <v>531</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A7434-758E-49F1-8CCD-F7F526716278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE0EF35-6AAB-4934-837F-3016F044ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="569">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2466,6 +2466,14 @@
   </si>
   <si>
     <t>ぜんしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひたい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3669,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3704,332 +3712,342 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>555</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>538</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>535</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>494</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>494</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>495</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>522</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>523</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>526</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>222</v>
+        <v>377</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>223</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>566</v>
       </c>
     </row>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE0EF35-6AAB-4934-837F-3016F044ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28972A1-AD86-4AB2-BBDA-606C0DAF67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="575">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2017,10 +2017,6 @@
   </si>
   <si>
     <t>姿</t>
-  </si>
-  <si>
-    <t>すが</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>履歴</t>
@@ -2474,6 +2470,34 @@
   </si>
   <si>
     <t>ひたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>からだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いのち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すがた</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2850,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3066,11 +3090,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>472</v>
+      <c r="A15" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>424</v>
@@ -3081,10 +3105,10 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>426</v>
@@ -3095,10 +3119,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>428</v>
@@ -3107,7 +3131,13 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>571</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>361</v>
       </c>
@@ -3115,7 +3145,13 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="D19" t="s">
         <v>363</v>
       </c>
@@ -3124,6 +3160,12 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>452</v>
       </c>
@@ -3157,31 +3199,31 @@
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D25" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D26" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>216</v>
@@ -3189,62 +3231,62 @@
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D29" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -3265,10 +3307,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3588,7 @@
         <v>391</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>108</v>
@@ -3631,39 +3673,39 @@
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G25" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G27" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G28" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G29" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>447</v>
@@ -3679,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3691,10 +3733,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3713,10 +3755,10 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3740,7 +3782,7 @@
         <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3783,7 +3825,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3794,44 +3836,44 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -3852,10 +3894,10 @@
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -3876,10 +3918,10 @@
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -3895,18 +3937,18 @@
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -3922,18 +3964,18 @@
         <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -3962,18 +4004,18 @@
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -3984,7 +4026,7 @@
         <v>278</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -4021,34 +4063,34 @@
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -4538,13 +4580,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>182</v>
@@ -4567,10 +4609,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>187</v>
@@ -4593,13 +4635,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>201</v>
@@ -4622,10 +4664,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>202</v>
@@ -4800,10 +4842,10 @@
         <v>214</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>400</v>
@@ -4988,10 +5030,10 @@
         <v>439</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.45">
@@ -5002,21 +5044,21 @@
         <v>441</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D37" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.45">

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28972A1-AD86-4AB2-BBDA-606C0DAF67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC91C4-B086-4846-AF21-3887F4C763F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="577">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2498,6 +2498,14 @@
   </si>
   <si>
     <t>すがた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>援助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんじょ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2874,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4282,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4692,6 +4700,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>215</v>
       </c>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC91C4-B086-4846-AF21-3887F4C763F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C60B2-A26C-4AB6-BC66-70A7D9E5E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
-    <sheet name="動作" sheetId="7" r:id="rId2"/>
-    <sheet name="治療（ちりょう）" sheetId="3" r:id="rId3"/>
-    <sheet name="器官（きかん）" sheetId="2" r:id="rId4"/>
-    <sheet name="効能（こうのう）" sheetId="4" r:id="rId5"/>
-    <sheet name="仕草（しぐさ）" sheetId="5" r:id="rId6"/>
+    <sheet name="治療（ちりょう）" sheetId="3" r:id="rId2"/>
+    <sheet name="器官（きかん）" sheetId="2" r:id="rId3"/>
+    <sheet name="効能（こうのう）" sheetId="4" r:id="rId4"/>
+    <sheet name="仕草（しぐさ）" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="586">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2290,14 +2289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲げる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>まげる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2506,6 +2497,50 @@
   </si>
   <si>
     <t>えんじょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あくび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（打哈欠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃっくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（打嗝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻水｜はなみず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほほ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3113,10 +3148,10 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>426</v>
@@ -3127,10 +3162,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>428</v>
@@ -3141,10 +3176,10 @@
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>361</v>
@@ -3155,10 +3190,10 @@
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D19" t="s">
         <v>363</v>
@@ -3172,7 +3207,7 @@
         <v>472</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>452</v>
@@ -3288,13 +3323,13 @@
     </row>
     <row r="33" spans="4:6" ht="18" x14ac:dyDescent="0.45">
       <c r="D33" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -3304,30 +3339,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03925EC-FB32-41FD-B1B9-5FF5D430CA4D}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
   <dimension ref="A2:K29"/>
   <sheetViews>
@@ -3689,31 +3700,31 @@
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G26" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G27" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G28" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G29" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>447</v>
@@ -3725,12 +3736,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3741,10 +3752,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3763,10 +3774,10 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3790,7 +3801,7 @@
         <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3802,303 +3813,525 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>554</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>537</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>532</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>493</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>494</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>521</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>522</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>523</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>222</v>
+        <v>377</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>223</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="C35" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>495</v>
+        <v>323</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>496</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>559</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>560</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D82067-5C3E-4E01-B3EE-14B4FEADA739}">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4108,189 +4341,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D82067-5C3E-4E01-B3EE-14B4FEADA739}">
-  <dimension ref="A2:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F9" t="s">
-        <v>418</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -4701,10 +4755,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>215</v>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C60B2-A26C-4AB6-BC66-70A7D9E5E195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4EDDF-19CF-477B-8510-0A2E17BFA48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="598">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2543,12 +2543,89 @@
     <t>ほほ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>くしゃみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打喷嚏）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫び</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さけび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（呼喊）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面皰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にきび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よだれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2604,6 +2681,22 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2625,7 +2718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2635,6 +2728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2917,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3217,6 +3311,12 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>454</v>
       </c>
@@ -3340,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3730,6 +3830,14 @@
         <v>447</v>
       </c>
     </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G30" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3738,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3880,254 +3988,263 @@
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>535</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>532</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>194</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>493</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>494</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>521</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>522</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>523</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>582</v>
+        <v>377</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>583</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>222</v>
+        <v>582</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>223</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>495</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>496</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>563</v>
       </c>
     </row>
@@ -4139,10 +4256,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D82067-5C3E-4E01-B3EE-14B4FEADA739}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4332,6 +4449,28 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4EDDF-19CF-477B-8510-0A2E17BFA48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B6E9B2-F082-47F7-8681-09311A3A35C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="600">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2618,6 +2618,14 @@
   </si>
   <si>
     <t>よだれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3440,10 +3448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3838,6 +3846,14 @@
         <v>593</v>
       </c>
     </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G31" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3848,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B6E9B2-F082-47F7-8681-09311A3A35C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5496CCC-1914-4F48-A851-7F0F4B977137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="602">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2626,6 +2626,14 @@
   </si>
   <si>
     <t>せき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひじ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3862,10 +3870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4116,151 +4124,159 @@
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>582</v>
+        <v>377</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>583</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>222</v>
+        <v>582</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>495</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>496</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>563</v>
       </c>
     </row>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5496CCC-1914-4F48-A851-7F0F4B977137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53606BB9-5FF0-499C-BEF5-1EB1A4054218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="602">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3025,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3406,45 +3406,37 @@
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D30" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>483</v>
+        <v>501</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D31" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="D33" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E33" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -3458,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3872,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53606BB9-5FF0-499C-BEF5-1EB1A4054218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434195D-37DF-4503-ABD3-700C699E8B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="620">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2297,11 +2297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血液｜けつえき
-血圧｜けつあつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>うで</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2634,6 +2629,84 @@
   </si>
   <si>
     <t>ひじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液｜けつえき
+血圧｜けつあつ
+血管｜けっかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>競争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいおん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修復</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゅうふく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細胞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さいぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語り合う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたりあう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうかん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3025,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3086,10 +3159,10 @@
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>249</v>
+        <v>606</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>607</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>259</v>
@@ -3099,11 +3172,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>247</v>
+      <c r="A6" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>264</v>
@@ -3113,11 +3186,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>245</v>
+      <c r="A7" t="s">
+        <v>247</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>270</v>
@@ -3131,10 +3204,10 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>273</v>
@@ -3148,10 +3221,10 @@
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>263</v>
@@ -3165,10 +3238,10 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>299</v>
@@ -3182,10 +3255,10 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>313</v>
@@ -3199,10 +3272,10 @@
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>314</v>
@@ -3214,12 +3287,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>328</v>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>325</v>
@@ -3230,10 +3303,10 @@
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>422</v>
@@ -3243,11 +3316,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
+      <c r="A15" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>424</v>
@@ -3258,10 +3331,10 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>547</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>426</v>
@@ -3272,10 +3345,10 @@
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>428</v>
@@ -3286,10 +3359,10 @@
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>361</v>
@@ -3300,10 +3373,10 @@
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D19" t="s">
         <v>363</v>
@@ -3313,11 +3386,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>472</v>
+      <c r="A20" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>452</v>
@@ -3327,11 +3400,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>594</v>
+      <c r="A21" t="s">
+        <v>472</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>454</v>
@@ -3341,6 +3414,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>456</v>
       </c>
@@ -3431,13 +3510,29 @@
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="D32" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>544</v>
+    </row>
+    <row r="33" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D33" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D34" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -3808,31 +3903,31 @@
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G26" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G27" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G28" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G29" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>447</v>
@@ -3840,18 +3935,18 @@
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G30" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="G31" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -3862,10 +3957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:A14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3876,10 +3971,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3898,10 +3993,10 @@
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3925,7 +4020,7 @@
         <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3938,10 +4033,10 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3976,7 +4071,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
@@ -3987,48 +4082,48 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -4057,10 +4152,10 @@
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -4116,10 +4211,10 @@
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -4135,18 +4230,18 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -4167,10 +4262,10 @@
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -4189,87 +4284,95 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>50</v>
+      <c r="C38" s="6" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>323</v>
+        <v>610</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>324</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
+      <c r="A41" t="s">
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>495</v>
+        <v>323</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>496</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>557</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>558</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>560</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4280,10 +4383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D82067-5C3E-4E01-B3EE-14B4FEADA739}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4455,46 +4558,62 @@
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>591</v>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4505,10 +4624,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C7" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4597,10 +4716,10 @@
         <v>146</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>126</v>
+        <v>618</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>127</v>
+        <v>619</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>381</v>
@@ -4629,10 +4748,10 @@
         <v>148</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -4655,10 +4774,10 @@
         <v>183</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>132</v>
@@ -4684,10 +4803,10 @@
         <v>186</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -4710,10 +4829,10 @@
         <v>235</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -4739,10 +4858,10 @@
         <v>303</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -4771,10 +4890,10 @@
         <v>298</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -4797,10 +4916,10 @@
         <v>347</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -4826,10 +4945,10 @@
         <v>349</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -4852,10 +4971,10 @@
         <v>366</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -4881,10 +5000,10 @@
         <v>368</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -4907,22 +5026,16 @@
         <v>372</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>215</v>
       </c>
@@ -4939,10 +5052,10 @@
         <v>372</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -4959,10 +5072,10 @@
         <v>372</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.45">
@@ -4979,10 +5092,10 @@
         <v>376</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.45">
@@ -4999,10 +5112,10 @@
         <v>405</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.45">
@@ -5019,10 +5132,10 @@
         <v>409</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.45">
@@ -5039,10 +5152,10 @@
         <v>451</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.45">
@@ -5059,10 +5172,10 @@
         <v>467</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.45">
@@ -5073,16 +5186,16 @@
         <v>214</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>477</v>
+        <v>608</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>478</v>
+        <v>609</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>400</v>
+        <v>176</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>401</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.45">
@@ -5092,11 +5205,17 @@
       <c r="E23" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.45">
@@ -5107,10 +5226,10 @@
         <v>86</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.45">
@@ -5121,10 +5240,10 @@
         <v>227</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.45">
@@ -5135,10 +5254,10 @@
         <v>231</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.45">
@@ -5149,10 +5268,10 @@
         <v>293</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.45">
@@ -5163,10 +5282,10 @@
         <v>295</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.45">
@@ -5177,10 +5296,10 @@
         <v>156</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.45">
@@ -5191,10 +5310,10 @@
         <v>386</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.45">
@@ -5205,10 +5324,10 @@
         <v>395</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.45">
@@ -5219,10 +5338,10 @@
         <v>407</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.45">
@@ -5233,10 +5352,10 @@
         <v>431</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.45">
@@ -5247,10 +5366,10 @@
         <v>437</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.45">
@@ -5261,10 +5380,10 @@
         <v>439</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.45">
@@ -5275,10 +5394,10 @@
         <v>441</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>509</v>
@@ -5291,6 +5410,12 @@
       <c r="E37" s="1" t="s">
         <v>511</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D38" s="1" t="s">
@@ -5299,6 +5424,12 @@
       <c r="E38" s="1" t="s">
         <v>462</v>
       </c>
+      <c r="J38" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D39" s="1" t="s">
@@ -5306,6 +5437,20 @@
       </c>
       <c r="E39" s="1" t="s">
         <v>465</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J40" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434195D-37DF-4503-ABD3-700C699E8B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA4C09-6D9D-4E28-8F71-0EA7DD106BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="655">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2707,6 +2707,145 @@
   </si>
   <si>
     <t>こうかん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対処</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいしょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しんねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消滅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうめつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にんしん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妊娠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過労</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しめい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病み</t>
+  </si>
+  <si>
+    <t>やみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ていこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れんどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇襲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きしゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂肪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3098,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3535,6 +3674,30 @@
         <v>617</v>
       </c>
     </row>
+    <row r="35" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D35" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D36" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D37" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3543,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1346DCBB-1ED1-4737-9500-E0A3A5D125E0}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="A1:G30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3559,6 +3722,14 @@
     <col min="9" max="9" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -3947,6 +4118,30 @@
       </c>
       <c r="H31" s="1" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G32" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G33" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="G34" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3957,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4292,86 +4487,94 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>495</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>496</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>562</v>
       </c>
     </row>
@@ -4383,10 +4586,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D82067-5C3E-4E01-B3EE-14B4FEADA739}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4616,6 +4819,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4624,10 +4835,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A6:C7"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5036,6 +5247,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>627</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>215</v>
       </c>
@@ -5225,6 +5442,12 @@
       <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>402</v>
       </c>
@@ -5239,6 +5462,12 @@
       <c r="E25" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="J25" s="1" t="s">
         <v>337</v>
       </c>
@@ -5253,6 +5482,12 @@
       <c r="E26" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>339</v>
       </c>
@@ -5446,11 +5681,49 @@
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D40" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>621</v>
+      </c>
       <c r="J40" s="1" t="s">
         <v>572</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J41" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J42" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J43" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J44" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/身体（からだ）.xlsx
+++ b/身体（からだ）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA4C09-6D9D-4E28-8F71-0EA7DD106BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278F411B-2F3F-4E7F-AF1D-DFF64F91FAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="属性（ぞくせい）" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="667">
   <si>
     <t>体検査</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2846,6 +2846,54 @@
   </si>
   <si>
     <t>脂肪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でんごん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承認</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>論争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろんそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうひょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3239,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B3C864-6A0F-47D1-A48B-76231A7D00C7}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E1:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4154,7 +4202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D95642E-5184-4C67-9163-B70BBD7CC3C2}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -4835,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77365B9D-3FFA-483A-B49C-05B5F9B65394}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5127,10 +5175,10 @@
         <v>347</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>172</v>
+        <v>657</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>173</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -5156,10 +5204,10 @@
         <v>349</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -5182,10 +5230,10 @@
         <v>366</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -5211,10 +5259,10 @@
         <v>368</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -5237,10 +5285,10 @@
         <v>372</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>199</v>
@@ -5269,10 +5317,10 @@
         <v>372</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -5289,10 +5337,10 @@
         <v>372</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.45">
@@ -5309,10 +5357,10 @@
         <v>376</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.45">
@@ -5329,10 +5377,10 @@
         <v>405</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.45">
@@ -5349,10 +5397,10 @@
         <v>409</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.45">
@@ -5369,10 +5417,10 @@
         <v>451</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.45">
@@ -5389,10 +5437,10 @@
         <v>467</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.45">
@@ -5409,10 +5457,10 @@
         <v>609</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.45">
@@ -5429,10 +5477,10 @@
         <v>478</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>400</v>
+        <v>176</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>401</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.45">
@@ -5449,10 +5497,10 @@
         <v>623</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.45">
@@ -5469,10 +5517,10 @@
         <v>629</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.45">
@@ -5489,10 +5537,10 @@
         <v>635</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.45">
@@ -5502,11 +5550,17 @@
       <c r="E27" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.45">
@@ -5517,10 +5571,10 @@
         <v>295</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.45">
@@ -5531,10 +5585,10 @@
         <v>156</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.45">
@@ -5545,10 +5599,10 @@
         <v>386</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.45">
@@ -5559,10 +5613,10 @@
         <v>395</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.45">
@@ -5573,10 +5627,10 @@
         <v>407</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.45">
@@ -5587,10 +5641,10 @@
         <v>431</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.45">
@@ -5601,10 +5655,10 @@
         <v>437</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.45">
@@ -5615,10 +5669,10 @@
         <v>439</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.45">
@@ -5629,10 +5683,10 @@
         <v>441</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>509</v>
@@ -5646,10 +5700,10 @@
         <v>511</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.45">
@@ -5660,10 +5714,10 @@
         <v>462</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.45">
@@ -5674,10 +5728,10 @@
         <v>465</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.45">
@@ -5688,42 +5742,78 @@
         <v>621</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D41" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="J41" s="1" t="s">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D42" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="J42" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="J43" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="J44" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J45" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>649</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J46" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J47" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
